--- a/ApplicationFlowsWindows.xlsx
+++ b/ApplicationFlowsWindows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Project\AppFlowConvertCore\AppFlowConvert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Application\DataFlow\DataFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C306FF0-DC81-4089-B5F0-0D2EBA2C6978}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0589CFA-ACCC-421A-91DC-4938326FE0D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C1EC7DB-2EC3-4BA5-9ED6-CA0C0F96D738}"/>
+    <workbookView xWindow="1425" yWindow="2085" windowWidth="26745" windowHeight="14640" xr2:uid="{2C1EC7DB-2EC3-4BA5-9ED6-CA0C0F96D738}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Protocol</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Dolphin.residentsystem.home</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>Ports</t>
@@ -75,9 +72,6 @@
 WebSrv04.residentsystem.com</t>
   </si>
   <si>
-    <t>Destination</t>
-  </si>
-  <si>
     <t>WebSrv05.residentsystem.com,
 WebSrv06.residentsystem.com</t>
   </si>
@@ -85,9 +79,6 @@
     <t>443</t>
   </si>
   <si>
-    <t>Ip</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -104,6 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">192.168.1.11, 192.168.1.12, 192.168.1.13, 192.168.1.14  </t>
+  </si>
+  <si>
+    <t>SourceName</t>
+  </si>
+  <si>
+    <t>SourceIP</t>
+  </si>
+  <si>
+    <t>DestinationName</t>
+  </si>
+  <si>
+    <t>DestinationIP</t>
   </si>
 </sst>
 </file>
@@ -515,97 +518,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D7FCF9-03B2-4892-AAFA-854B0DF48F99}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +630,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F3 A4" numberStoredAsText="1"/>
+    <ignoredError sqref="G3 A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
